--- a/INTLINE/data/142/STANOR/09183 Gross fixed capital formation by quarter industry and contents(Main industries).xlsx
+++ b/INTLINE/data/142/STANOR/09183 Gross fixed capital formation by quarter industry and contents(Main industries).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <x:si>
     <x:t>09183: Gross fixed capital formation, by quarter, industry and contents</x:t>
   </x:si>
@@ -553,6 +553,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Unadjusted figures from the base year (final annual accounts) are preliminary.</x:t>
   </x:si>
   <x:si>
@@ -565,7 +568,7 @@
     <x:t>Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220216 08:00</x:t>
+    <x:t>20220513 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1012,7 +1015,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B224"/>
+  <x:dimension ref="A1:B225"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2417,7 +2420,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="B177" s="3" t="n">
-        <x:v>6471</x:v>
+        <x:v>6473</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:2">
@@ -2425,7 +2428,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="B178" s="3" t="n">
-        <x:v>6931</x:v>
+        <x:v>6932</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:2">
@@ -2433,7 +2436,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="B179" s="3" t="n">
-        <x:v>6547</x:v>
+        <x:v>6548</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:2">
@@ -2441,12 +2444,15 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="B180" s="3" t="n">
-        <x:v>7166</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="182" spans="1:2">
-      <x:c r="A182" s="4" t="s">
+        <x:v>7162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:2">
+      <x:c r="A181" s="2" t="s">
         <x:v>179</x:v>
+      </x:c>
+      <x:c r="B181" s="3" t="n">
+        <x:v>7126</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
@@ -2454,8 +2460,8 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="185" spans="1:2">
-      <x:c r="A185" s="0" t="s">
+    <x:row r="184" spans="1:2">
+      <x:c r="A184" s="4" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
@@ -2469,8 +2475,8 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="189" spans="1:2">
-      <x:c r="A189" s="0" t="s">
+    <x:row r="188" spans="1:2">
+      <x:c r="A188" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
     </x:row>
@@ -2479,19 +2485,19 @@
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="192" spans="1:2">
-      <x:c r="A192" s="0" t="s">
+    <x:row r="191" spans="1:2">
+      <x:c r="A191" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:2">
       <x:c r="A193" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:2">
       <x:c r="A194" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:2">
@@ -2504,24 +2510,24 @@
         <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="200" spans="1:2">
-      <x:c r="A200" s="0" t="s">
+    <x:row r="197" spans="1:2">
+      <x:c r="A197" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:2">
-      <x:c r="A202" s="0" t="s">
+    <x:row r="201" spans="1:2">
+      <x:c r="A201" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:2">
       <x:c r="A203" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:2">
       <x:c r="A204" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:2">
@@ -2531,41 +2537,41 @@
     </x:row>
     <x:row r="206" spans="1:2">
       <x:c r="A206" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:2">
       <x:c r="A207" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="209" spans="1:2">
-      <x:c r="A209" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:2">
+      <x:c r="A208" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:2">
       <x:c r="A210" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:2">
       <x:c r="A211" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="214" spans="1:2">
-      <x:c r="A214" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:2">
+      <x:c r="A212" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:2">
       <x:c r="A215" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:2">
-      <x:c r="A220" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:2">
+      <x:c r="A216" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
     </x:row>
@@ -2574,8 +2580,8 @@
         <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="223" spans="1:2">
-      <x:c r="A223" s="0" t="s">
+    <x:row r="222" spans="1:2">
+      <x:c r="A222" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
     </x:row>
@@ -2584,10 +2590,15 @@
         <x:v>201</x:v>
       </x:c>
     </x:row>
+    <x:row r="225" spans="1:2">
+      <x:c r="A225" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A182:B182"/>
     <x:mergeCell ref="A183:B183"/>
+    <x:mergeCell ref="A184:B184"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
